--- a/wSigner.Test/input/input.xlsx
+++ b/wSigner.Test/input/input.xlsx
@@ -1,31 +1,217 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="19155" windowHeight="9780"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>asdasdas</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+  <si>
+    <t>Tên NNT:</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần công nghệ thông tin Đông Nam Á</t>
+  </si>
+  <si>
+    <t>Mã tờ khai:</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Tên tờ khai:</t>
+  </si>
+  <si>
+    <t>Tờ khai thuế GTGT khấu trừ</t>
+  </si>
+  <si>
+    <t>Mã loại tờ khai:</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Tên loại tờ khai:</t>
+  </si>
+  <si>
+    <t>Chính thức</t>
+  </si>
+  <si>
+    <t>Kỳ tính thuế:</t>
+  </si>
+  <si>
+    <t>07/2010</t>
+  </si>
+  <si>
+    <t>10121</t>
+  </si>
+  <si>
+    <t>Chi cục thuế huyện Từ Liêm</t>
+  </si>
+  <si>
+    <t>Mã phụ lục:</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Họ và tên (*)</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>Số CMND/Hộ chiếu</t>
+  </si>
+  <si>
+    <t>Thu nhập chịu thuế</t>
+  </si>
+  <si>
+    <t>Các khoản giảm trừ</t>
+  </si>
+  <si>
+    <t>TNCT làm căn cứ tính giảm thuế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số thuế TNCN đã </t>
+  </si>
+  <si>
+    <t>Quyết toán tại CQCT</t>
+  </si>
+  <si>
+    <t>Chi tiết kết quả quyết toán thay cho cá nhân nộp thuế</t>
+  </si>
+  <si>
+    <t>Người phụ thuộc</t>
+  </si>
+  <si>
+    <t>Từ thiện, nhân đạo, khuyến học</t>
+  </si>
+  <si>
+    <t>Bảo hiểm bắt buộc</t>
+  </si>
+  <si>
+    <t>Số NPT</t>
+  </si>
+  <si>
+    <t>Tổng số tháng giảm trừ</t>
+  </si>
+  <si>
+    <t>khấu trừ</t>
+  </si>
+  <si>
+    <t>Tổng số thuế phải nộp</t>
+  </si>
+  <si>
+    <t>Số thuế đã nộp thừa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số thuế còn phải khấu trừ thêm </t>
+  </si>
+  <si>
+    <t>[04]</t>
+  </si>
+  <si>
+    <t>[05]</t>
+  </si>
+  <si>
+    <t>[06]</t>
+  </si>
+  <si>
+    <t>[07]</t>
+  </si>
+  <si>
+    <t>[08]</t>
+  </si>
+  <si>
+    <t>[09]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>[17]</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>..............., ngày......... tháng........... năm..........</t>
+  </si>
+  <si>
+    <t>NGƯỜI NỘP THUẾ hoặc</t>
+  </si>
+  <si>
+    <t>ĐẠI DIỆN HỢP PHÁP CỦA NGƯỜI NỘP THUẾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ký tên, đóng dấu (ghi rõ họ tên và chức vụ)</t>
+  </si>
+  <si>
+    <t>Mã số thuế:</t>
+  </si>
+  <si>
+    <t>0102454468</t>
+  </si>
+  <si>
+    <t>Mã cơ quan thuế</t>
+  </si>
+  <si>
+    <t>Tên cơ quan thuế</t>
+  </si>
+  <si>
+    <t>Đơn vị tiền: Đồng Việt Nam</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BẢNG KÊ THU NHẬP CHỊU THUẾ VÀ THUẾ THU NHẬP CÁ NHÂN 
+ĐÃ KHẤU TRỪ ĐỐI VỚI THU NHẬP TỪ TIỀN LƯƠNG, 
+TIỀN CÔNG CỦA CÁ NHÂN CƯ TRÚ CÓ KÝ HỢP ĐỒNG LAO ĐỘNG  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mẫu số: 05A/BK-TNCN</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +219,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -50,12 +277,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,44 +667,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:15" ht="66" customHeight="1">
+      <c r="A1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" customHeight="1">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="M13" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" ht="22.5">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="H23" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="H24" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="H25" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="H26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="H27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>